--- a/data/hotels_by_city/Houston/Houston_shard_33.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_33.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="665">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d108020-Reviews-Best_Western_Heritage_Inn-Houston_Texas.html</t>
   </si>
   <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Best-Western-Heritage-Inn.h280663.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1895 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r573264236-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108020</t>
+  </si>
+  <si>
+    <t>573264236</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>Overall good</t>
+  </si>
+  <si>
+    <t>While the stay was overall very good, clean rooms, comfortable beds, excellent wifi, pool looked clean (to bad it was cold outside), and nice staff. Bring drinks and snacks, out of 3 soda machines only 2 worked and were out of almost everything and didnt have the correct price posted you had to select a soda to find out they were 2 dollars and they only snack machine I saw was completely empty.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2018</t>
+  </si>
+  <si>
+    <t>While the stay was overall very good, clean rooms, comfortable beds, excellent wifi, pool looked clean (to bad it was cold outside), and nice staff. Bring drinks and snacks, out of 3 soda machines only 2 worked and were out of almost everything and didnt have the correct price posted you had to select a soda to find out they were 2 dollars and they only snack machine I saw was completely empty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r522483446-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522483446</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>My Experience</t>
+  </si>
+  <si>
+    <t>Nice stay. nice breakfast. We left early (Harvey) and the hotel waived the charge for the rest  of our original reservation We hope all hotel staff and their families are ok after the storm  abcdefghijklmnopqvwxyzMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Nice stay. nice breakfast. We left early (Harvey) and the hotel waived the charge for the rest  of our original reservation We hope all hotel staff and their families are ok after the storm  abcdefghijklmnopqvwxyzMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r516491701-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516491701</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>More than decent!</t>
+  </si>
+  <si>
+    <t>Overall this hotel served its purpose! It was affordable and decently close to the the places I wanted to view. The outside of the hotel needs updating. However, the staff was very friendly and very funny! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Overall this hotel served its purpose! It was affordable and decently close to the the places I wanted to view. The outside of the hotel needs updating. However, the staff was very friendly and very funny! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r507448403-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507448403</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Comfortable Atmosphere</t>
+  </si>
+  <si>
+    <t>For the price of the rooms, the service and friendliness of the staff where outstanding. I would recommend this hotel for Business and vacation, either event this hotel is accommodating. The location of the hotel is safe and secured.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>For the price of the rooms, the service and friendliness of the staff where outstanding. I would recommend this hotel for Business and vacation, either event this hotel is accommodating. The location of the hotel is safe and secured.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r507434021-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507434021</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Alice at front desk is great! The rooms were very clean. We felt safe during our stay. Break was hot and delicious. Pool was clean and wifi was fast. I would recommend this hotel to others and really enjoy our stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Alice at front desk is great! The rooms were very clean. We felt safe during our stay. Break was hot and delicious. Pool was clean and wifi was fast. I would recommend this hotel to others and really enjoy our stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r504365356-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504365356</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Great Stay, Great Staff, and Great Value!</t>
+  </si>
+  <si>
+    <t>I was visiting Houston for a short period, but this location made the trip even better. Daisy at check in was very welcoming and friendly. She was very helpful and really made the process of checking in run smooth. The room was very nice for the price I was paying. They have gated parking if you want your car in a secure location. I would recommend this hotel to anyone staying in the Houston area. It was only about a 15 min drive to downtown, and that was with traffic.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r494444832-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494444832</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>I will visit again!!</t>
+  </si>
+  <si>
+    <t>Clean rooms, nice staff and the food from breakfast was great and more that what I was expecting! I stayed with my family for two nights,we enjoyed the pool greatly!! For the pay you get so much more! I will visit again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>JEN G, Director of Sales at Best Western Heritage Inn, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Clean rooms, nice staff and the food from breakfast was great and more that what I was expecting! I stayed with my family for two nights,we enjoyed the pool greatly!! For the pay you get so much more! I will visit again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r493741872-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493741872</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Great location hotel</t>
+  </si>
+  <si>
+    <t>This is a nice hotel for the price not too far from down town Houston and very close to good restaurants. Check in was quick and easy and so was the check out. It looks clean and modern and I like the fact that it's close (less than a mile) to two very good mexican restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, Director of Sales at Best Western Heritage Inn, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>This is a nice hotel for the price not too far from down town Houston and very close to good restaurants. Check in was quick and easy and so was the check out. It looks clean and modern and I like the fact that it's close (less than a mile) to two very good mexican restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r492354342-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492354342</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Came to Houston to see Tripping Daisy at Warehouse Live</t>
+  </si>
+  <si>
+    <t>Alice was really nice and did a great job checking us in. We were in room 214 and the air conditioner worked great. Loved the gated parking, refrigerator, microwave, and room location. The parking lot is small but we always found a spot. I wasn't a fan of the firm mattress and more than two towels and washcloths would have been great.MoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Alice was really nice and did a great job checking us in. We were in room 214 and the air conditioner worked great. Loved the gated parking, refrigerator, microwave, and room location. The parking lot is small but we always found a spot. I wasn't a fan of the firm mattress and more than two towels and washcloths would have been great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r485815370-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485815370</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>GREAT STAY!</t>
+  </si>
+  <si>
+    <t>Excellent hotel!  Very clean. Employees were very courteous and accommodating.  The parking lot is gated. No interstate noise. Breakfast was excellent. Close to several places to eat. The pool is small, but it looked very clean. All areas of the hotel was clean. Very impressed!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>JEN G, Director of Sales at Best Western Heritage Inn, responded to this reviewResponded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel!  Very clean. Employees were very courteous and accommodating.  The parking lot is gated. No interstate noise. Breakfast was excellent. Close to several places to eat. The pool is small, but it looked very clean. All areas of the hotel was clean. Very impressed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r485098721-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485098721</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>The best</t>
+  </si>
+  <si>
+    <t>Service was great. Very nice rooms.The area is a little ruff. It is tons of restaurants around the hotel. A very nice and clean pool. The hotel is really worth the staying and money compare to the other hotels around it.MoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Service was great. Very nice rooms.The area is a little ruff. It is tons of restaurants around the hotel. A very nice and clean pool. The hotel is really worth the staying and money compare to the other hotels around it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r483213615-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483213615</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Relaxing!</t>
+  </si>
+  <si>
+    <t>Great hotel stay! My kids loved everything! Breakfast was delicious, I would only change the breakfast  sausage to turkey meat. Also I asked the lady at the desk a question she couldn't answer, she said she was still in training!MoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel stay! My kids loved everything! Breakfast was delicious, I would only change the breakfast  sausage to turkey meat. Also I asked the lady at the desk a question she couldn't answer, she said she was still in training!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r477871537-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477871537</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>No problems here</t>
+  </si>
+  <si>
+    <t>Really great stay.  No problems with the staff they were really great people. I went out in Houston.  It was very easy to find off of I-10.  They made sure I knew when breakfast was and the staff was very helpful.  I would chose this hotel again once I go back to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Really great stay.  No problems with the staff they were really great people. I went out in Houston.  It was very easy to find off of I-10.  They made sure I knew when breakfast was and the staff was very helpful.  I would chose this hotel again once I go back to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r477619212-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477619212</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Outstanding service and cleanliness</t>
+  </si>
+  <si>
+    <t>The rooms are nice and comfortable.  The staff was very helpful and available to make me feel relaxed.  Thank you for making my trip to Houston a positive one.  Will return back soon.  The breakfast area was large and the menu of items available were diverse.  Coffee was excellent!! Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2017</t>
+  </si>
+  <si>
+    <t>The rooms are nice and comfortable.  The staff was very helpful and available to make me feel relaxed.  Thank you for making my trip to Houston a positive one.  Will return back soon.  The breakfast area was large and the menu of items available were diverse.  Coffee was excellent!! Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r476671276-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476671276</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>A great stay</t>
+  </si>
+  <si>
+    <t>Our stay was wonderful. Staff was very kind and courteous. Hotel room's were very clean, and the bed was comfortable. For the price you cannot beat it. Downside is they don't do breakfast until 9 am like it says, they start picking up and turning everything off 10 minutes early. So if you want breakfast go at 8:30. Parking and location aren't the greatest but I was happy that it had gated parking. They let us check out early because I ended up being sick and they refunded us for that night even though we paid in advance. We will definitely stay at this hotel again in the future when we go visit family.MoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Our stay was wonderful. Staff was very kind and courteous. Hotel room's were very clean, and the bed was comfortable. For the price you cannot beat it. Downside is they don't do breakfast until 9 am like it says, they start picking up and turning everything off 10 minutes early. So if you want breakfast go at 8:30. Parking and location aren't the greatest but I was happy that it had gated parking. They let us check out early because I ended up being sick and they refunded us for that night even though we paid in advance. We will definitely stay at this hotel again in the future when we go visit family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r467124454-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467124454</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Way below BW expectations</t>
+  </si>
+  <si>
+    <t>Poor location, gated parking for "security", blow-dryers have to be requested through executive housekeeping, unskilled customer service clerks. Hair in our bathtub from previous check out, odd tv remote that was not user friendly, no welcome binder for restaurants or fun things to do in the area...just a very poor, poor experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded March 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2017</t>
+  </si>
+  <si>
+    <t>Poor location, gated parking for "security", blow-dryers have to be requested through executive housekeeping, unskilled customer service clerks. Hair in our bathtub from previous check out, odd tv remote that was not user friendly, no welcome binder for restaurants or fun things to do in the area...just a very poor, poor experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r465974228-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465974228</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>This hotel is useful for businessmen.</t>
+  </si>
+  <si>
+    <t>This hotel is useful for businessmen.  This is not the city but it is close.  The hotel is on the way from Galveston to Houston.  Pool was small, but was clean, too.  The small Mexican restaurant next to this place was surprisingly good.MoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is useful for businessmen.  This is not the city but it is close.  The hotel is on the way from Galveston to Houston.  Pool was small, but was clean, too.  The small Mexican restaurant next to this place was surprisingly good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r465335908-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465335908</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>Sketchy staff</t>
+  </si>
+  <si>
+    <t>People will walk into your room, money came up missing so it was an inside job, we were overcharged and I was unable to reach a manager and could not get it resolved until I left. We felt unsafe and not taken care ofMoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>People will walk into your room, money came up missing so it was an inside job, we were overcharged and I was unable to reach a manager and could not get it resolved until I left. We felt unsafe and not taken care ofMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r447346056-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447346056</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>A lot of bugs</t>
+  </si>
+  <si>
+    <t>I stayed in other best western before. But this one is very disappointing. There is gum on the ground and many bugs in the bathroom. The bathtub was clogged, and we changed to another room. Both rooms had many bugs.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in other best western before. But this one is very disappointing. There is gum on the ground and many bugs in the bathroom. The bathtub was clogged, and we changed to another room. Both rooms had many bugs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r432825393-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432825393</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Stay Away!</t>
+  </si>
+  <si>
+    <t>This is one of the worst hotel experience I had. Our room was beyond dirty. The bathroom was not cleaned at all. I called front desk. No one picked up the phone. I went there and explained the situation. I told her that towels are all around the place in bathroom and the bathroom was not cleaned. Someone didn't even flush! She didn't believe me and went to check the room. Then, she gave another room to us. It was also dirty. She told me that this is the only one available even though there were tons of rooms available at night. If I am the manager of this hotel, I would fire her immediately due to lack of hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>This is one of the worst hotel experience I had. Our room was beyond dirty. The bathroom was not cleaned at all. I called front desk. No one picked up the phone. I went there and explained the situation. I told her that towels are all around the place in bathroom and the bathroom was not cleaned. Someone didn't even flush! She didn't believe me and went to check the room. Then, she gave another room to us. It was also dirty. She told me that this is the only one available even though there were tons of rooms available at night. If I am the manager of this hotel, I would fire her immediately due to lack of hospitality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r428956642-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428956642</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Worst. Hotel. Ever.</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel to any one, under any circumstances. The pool was closed, the gym is way under par, the breakfast was terrible and they were out of coffee 2 out of the 4 days I was there, the staff at the front desk were always looking down at their phone and you could hardly get there attention not to mention one day the cleaning crew quick cleaning my room right in the middle - I had to call the front desk just to get more towels.This place was easier the worst hotel I have ever stayed in. MoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded November 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2016</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel to any one, under any circumstances. The pool was closed, the gym is way under par, the breakfast was terrible and they were out of coffee 2 out of the 4 days I was there, the staff at the front desk were always looking down at their phone and you could hardly get there attention not to mention one day the cleaning crew quick cleaning my room right in the middle - I had to call the front desk just to get more towels.This place was easier the worst hotel I have ever stayed in. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r409113228-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>409113228</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>BASEBALL JUNKIE</t>
+  </si>
+  <si>
+    <t>After having just seeing 3 games in Arlington a few days earlier it was now time to watch some ball in Houston.  The hotel definately met all of our needs and was close enough to any shopping that we wanted to do.  Lots of freeways and traffic to the Minute Maid Ball Park but we managed to get back and forth safely.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>After having just seeing 3 games in Arlington a few days earlier it was now time to watch some ball in Houston.  The hotel definately met all of our needs and was close enough to any shopping that we wanted to do.  Lots of freeways and traffic to the Minute Maid Ball Park but we managed to get back and forth safely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r406887221-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>406887221</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>i was satisfied with my stay at the best western heritage inn. the bed was very comfortable and clean. the room was very spacious. the lobby was clean so was the outside. i like the remodeling the hotel is doing.MoreShow less</t>
+  </si>
+  <si>
+    <t>i was satisfied with my stay at the best western heritage inn. the bed was very comfortable and clean. the room was very spacious. the lobby was clean so was the outside. i like the remodeling the hotel is doing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r402069684-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>402069684</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and comfortable </t>
+  </si>
+  <si>
+    <t>In Houston for the first time for some training,  my company booked me into the Best Western Heritage Inn.  After a horrendous flight that was delayed a couple hours I was exhausted and looking forward to a good nights sleep.  Arriving at the hotel around 12:30am the woman at the reservation desk had me checked in and on my way to my room in a few short minutes.  I went up to my room and when I opened the door I saw that someone was already sleeping in the room.  I quietly shut the door and went back to the reservation desk.  The woman was very very apologetic and explained that I was the first guest they were able to check in thru the computer, that it was down for most of the day and that she still had manual reservations to log into the computer.  She quickly upgraded me to a suite and I was on my way to my room.  The room was clean and comfortable.  Everyday house keeping did an excellent job of keeping the room clean and I never needed to ask for anything.  They offer a decent breakfast every morning and even though I didn't use the pool,  I did notice that it was well maintained and clean.  In fact the entire hotel and grounds were kept clean.  If I'm ever in the Houston area again I would definitely stay at this hotel againMoreShow less</t>
+  </si>
+  <si>
+    <t>In Houston for the first time for some training,  my company booked me into the Best Western Heritage Inn.  After a horrendous flight that was delayed a couple hours I was exhausted and looking forward to a good nights sleep.  Arriving at the hotel around 12:30am the woman at the reservation desk had me checked in and on my way to my room in a few short minutes.  I went up to my room and when I opened the door I saw that someone was already sleeping in the room.  I quietly shut the door and went back to the reservation desk.  The woman was very very apologetic and explained that I was the first guest they were able to check in thru the computer, that it was down for most of the day and that she still had manual reservations to log into the computer.  She quickly upgraded me to a suite and I was on my way to my room.  The room was clean and comfortable.  Everyday house keeping did an excellent job of keeping the room clean and I never needed to ask for anything.  They offer a decent breakfast every morning and even though I didn't use the pool,  I did notice that it was well maintained and clean.  In fact the entire hotel and grounds were kept clean.  If I'm ever in the Houston area again I would definitely stay at this hotel againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r392388759-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392388759</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Do not stay</t>
+  </si>
+  <si>
+    <t>Poor Staff Service, very bad food, Food not fit for a dog. Water bugs in room. Pool out of order for most of my 8 night stay. Breakfast was out but since it wasn't 6:am yet, I wasn't allowed to take an orange. Coffee is out nightly but the creamer is locked up.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r387229612-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387229612</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Help wanted housekeeping and then some</t>
+  </si>
+  <si>
+    <t>This is probably the worst BW I have stayed at and perhaps the "Help wanted HSK" on the billboard outside should have been a sign of things to come. Upon arrival I found the previous guest's used towel hanging on the bathroom door with most of their hair on the floor below it. At least dinner was included but I wasn't sure I wanted to explore the box of leftovers in the refrigerator... The only thing that could make things better at this point was a stiff drink but there wasn't a cup to found. I visited the lobby and was initially treated rudely by the front desk worker that was camped out in front of the TV with their smart phone. I explained the situation and was directed to some cups.The next day after returning from work I found the the leftovers were still in the refrigerator, the hair was still on the floor but at least the towel and my pint of vodka were gone... Seriously!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>This is probably the worst BW I have stayed at and perhaps the "Help wanted HSK" on the billboard outside should have been a sign of things to come. Upon arrival I found the previous guest's used towel hanging on the bathroom door with most of their hair on the floor below it. At least dinner was included but I wasn't sure I wanted to explore the box of leftovers in the refrigerator... The only thing that could make things better at this point was a stiff drink but there wasn't a cup to found. I visited the lobby and was initially treated rudely by the front desk worker that was camped out in front of the TV with their smart phone. I explained the situation and was directed to some cups.The next day after returning from work I found the the leftovers were still in the refrigerator, the hair was still on the floor but at least the towel and my pint of vodka were gone... Seriously!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r384493567-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384493567</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Better customer service. We had next door guests that were loud for the whole evening. I asked the hotel quiet them down and they did little to try to solve the problem. Our bed sheets were not completely dry and we asked for more and had to get them ourselves from the front desk. It should not have been called a 3 star hotel by any standard.MoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, Director of Sales at Best Western Heritage Inn, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Better customer service. We had next door guests that were loud for the whole evening. I asked the hotel quiet them down and they did little to try to solve the problem. Our bed sheets were not completely dry and we asked for more and had to get them ourselves from the front desk. It should not have been called a 3 star hotel by any standard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r379660283-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379660283</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Mold in Room</t>
+  </si>
+  <si>
+    <t>We got to our room and immediately noticed the bed and floors were damp. We went into the restroom and there was mold on the ceiling. I called down to the front desk and was told that there where no other rooms because a company was coming in and the rest of the rooms were reserved. I asked if someone want to come take a look. I was told housekeeping had already left for the day. I asked for bleach so I could clean it myself. I was told there wasn't any bleach that she could give me because the bleach are in industrial sized packaging. I asked for anything that could kill the mold. I was told there was a bottle of Lysol if I wanted to come down to the front desk and get it. I did go down and get the Lysol and sprayed the heck out of the mold with it. I have been sick before because of black mold and have been sensitive to all mold ever since. This is the only reason it was a big deal for me. Housekeep came by in the morning and sprayed bleach on it and got a brush and cleaned it up. I am thankful for the gentleman that cleaned it up with bleach. This is a hard situation for me because I don't want anyone including employees to become sick because of mold. I have been sick...We got to our room and immediately noticed the bed and floors were damp. We went into the restroom and there was mold on the ceiling. I called down to the front desk and was told that there where no other rooms because a company was coming in and the rest of the rooms were reserved. I asked if someone want to come take a look. I was told housekeeping had already left for the day. I asked for bleach so I could clean it myself. I was told there wasn't any bleach that she could give me because the bleach are in industrial sized packaging. I asked for anything that could kill the mold. I was told there was a bottle of Lysol if I wanted to come down to the front desk and get it. I did go down and get the Lysol and sprayed the heck out of the mold with it. I have been sick before because of black mold and have been sensitive to all mold ever since. This is the only reason it was a big deal for me. Housekeep came by in the morning and sprayed bleach on it and got a brush and cleaned it up. I am thankful for the gentleman that cleaned it up with bleach. This is a hard situation for me because I don't want anyone including employees to become sick because of mold. I have been sick because of mold and it's not easy. So just be cautious and look at your surroundings.MoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, Manager at Best Western Heritage Inn, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>We got to our room and immediately noticed the bed and floors were damp. We went into the restroom and there was mold on the ceiling. I called down to the front desk and was told that there where no other rooms because a company was coming in and the rest of the rooms were reserved. I asked if someone want to come take a look. I was told housekeeping had already left for the day. I asked for bleach so I could clean it myself. I was told there wasn't any bleach that she could give me because the bleach are in industrial sized packaging. I asked for anything that could kill the mold. I was told there was a bottle of Lysol if I wanted to come down to the front desk and get it. I did go down and get the Lysol and sprayed the heck out of the mold with it. I have been sick before because of black mold and have been sensitive to all mold ever since. This is the only reason it was a big deal for me. Housekeep came by in the morning and sprayed bleach on it and got a brush and cleaned it up. I am thankful for the gentleman that cleaned it up with bleach. This is a hard situation for me because I don't want anyone including employees to become sick because of mold. I have been sick...We got to our room and immediately noticed the bed and floors were damp. We went into the restroom and there was mold on the ceiling. I called down to the front desk and was told that there where no other rooms because a company was coming in and the rest of the rooms were reserved. I asked if someone want to come take a look. I was told housekeeping had already left for the day. I asked for bleach so I could clean it myself. I was told there wasn't any bleach that she could give me because the bleach are in industrial sized packaging. I asked for anything that could kill the mold. I was told there was a bottle of Lysol if I wanted to come down to the front desk and get it. I did go down and get the Lysol and sprayed the heck out of the mold with it. I have been sick before because of black mold and have been sensitive to all mold ever since. This is the only reason it was a big deal for me. Housekeep came by in the morning and sprayed bleach on it and got a brush and cleaned it up. I am thankful for the gentleman that cleaned it up with bleach. This is a hard situation for me because I don't want anyone including employees to become sick because of mold. I have been sick because of mold and it's not easy. So just be cautious and look at your surroundings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r378890913-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378890913</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Hotal was a good value for the monies paid.</t>
+  </si>
+  <si>
+    <t>Hotel staff were pleasant and professional in appearance and attitude. The room was clean upon entry and was maintained so by hotel house keeping staff, although you could tell when staff changed , not the same level of attention to detail was maintained. The hotel is under some construction ,but, staff did their best not to allow the work to interfere wit my stay. The breakfast was good , fresh, and clean.. I encountered a slight continual problem with getting into the gated secure parking area with hotel key. But as a whole the hotel and staff met my needs on this trip and I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Hotel staff were pleasant and professional in appearance and attitude. The room was clean upon entry and was maintained so by hotel house keeping staff, although you could tell when staff changed , not the same level of attention to detail was maintained. The hotel is under some construction ,but, staff did their best not to allow the work to interfere wit my stay. The breakfast was good , fresh, and clean.. I encountered a slight continual problem with getting into the gated secure parking area with hotel key. But as a whole the hotel and staff met my needs on this trip and I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r376384199-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376384199</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>This hotel has very nice staff and a great service. The rooms are very big and clean. The breakfast buffet is great, The hotel is located next to the highway. You don't hear the highway in your room. IMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>This hotel has very nice staff and a great service. The rooms are very big and clean. The breakfast buffet is great, The hotel is located next to the highway. You don't hear the highway in your room. IMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r366708181-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>366708181</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>That Smell</t>
+  </si>
+  <si>
+    <t>Mold and Mildew seem to reside here permanently. Room smelled awful, mold growing in the bathroom. Stains on the furniture, staff apologize and say that's all they can do. Breakfast bar is a mess, I saw it stocked first thing in the morning and they appear to use the day before biscuits. Left at 7am in search of a hotel room in Houston that didn't make my skin crawl. Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mold and Mildew seem to reside here permanently. Room smelled awful, mold growing in the bathroom. Stains on the furniture, staff apologize and say that's all they can do. Breakfast bar is a mess, I saw it stocked first thing in the morning and they appear to use the day before biscuits. Left at 7am in search of a hotel room in Houston that didn't make my skin crawl. Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r365298208-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365298208</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Very Nice, Clean and Tidy!!</t>
+  </si>
+  <si>
+    <t>Be sure to check in before they lock the doors at 11:00 PM, had an excellent stay and day staff is professional and friendly. It is ridiculous to have to say more than you need to say to get the job done......why should you have to have a MINIMUM of 200 characters?MoreShow less</t>
+  </si>
+  <si>
+    <t>Be sure to check in before they lock the doors at 11:00 PM, had an excellent stay and day staff is professional and friendly. It is ridiculous to have to say more than you need to say to get the job done......why should you have to have a MINIMUM of 200 characters?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r360791525-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360791525</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>AVOID</t>
+  </si>
+  <si>
+    <t>When we opened the door the smell took your breath away.  When I asked the front desk for another room, she said they were all reserved despite online showing rooms available and despite the fact that all the rooms had not been checked into.  She offered me a can of Lysol and apparently had offered this as a solution numerous times before with how quickly she offered.  I then asked for my money back and she said it was too late.  I told her I would be leaving and contacting my credit card company to dispute the charges.  Suddenly another room became available.  Although the smell was better, it has gotten worse not to mention the nasty chair that was in the room (see pic).  It was so nasty I simply took it to the front desk to get it out of the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, Manager at Best Western Heritage Inn, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>When we opened the door the smell took your breath away.  When I asked the front desk for another room, she said they were all reserved despite online showing rooms available and despite the fact that all the rooms had not been checked into.  She offered me a can of Lysol and apparently had offered this as a solution numerous times before with how quickly she offered.  I then asked for my money back and she said it was too late.  I told her I would be leaving and contacting my credit card company to dispute the charges.  Suddenly another room became available.  Although the smell was better, it has gotten worse not to mention the nasty chair that was in the room (see pic).  It was so nasty I simply took it to the front desk to get it out of the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r350158167-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350158167</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Best Western - Stay Away</t>
+  </si>
+  <si>
+    <t>My jacket was stolen.  It was a nice jacket, cost around $75 (I think it was Dockers but not positive).  It was the perfect weight.  Other than the theft of my jacket everything was ok but that experience overshadowed the entire 3 day trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2016</t>
+  </si>
+  <si>
+    <t>My jacket was stolen.  It was a nice jacket, cost around $75 (I think it was Dockers but not positive).  It was the perfect weight.  Other than the theft of my jacket everything was ok but that experience overshadowed the entire 3 day trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r342628267-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>342628267</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here! Horrible!!</t>
+  </si>
+  <si>
+    <t>Horrible hotel and staff! So many problems with this hotel and staff that I had to write a list during our stay. The staff were consistently on the hotel computer in the lobby checking their email every time we came down from our room. Eva was one of the workers who consistently was checking her email. Eva was the person who was available when we went to complain. She consistently told us our problems would be solved, but she failed at this. 
+Initially when we checked in we were given a handicap room. We are not handicap. 
+The bathroom consistently flooded the first night all over the bathroom floor. Also, in our room upon entry a cockroach was actively climbing on the wall above the bed. The room smelled like mold. The bed frame middle piece broke off exposing nails above our heads. Beside our bed was what looked like poop from an animal or rodent.  The towels had hair balls on two of them. The square pillows were very tiny…like sleeping on couch pillows. 
+The next morning, we complained to Eva about our room. She said she would put us in another room. She then placed us on the third floor. The room was disorganized and half of the hallway smelled like paint and there was construction workers and construction actively going on in this floor. We went down to Eva, yet again and described our room. She said...Horrible hotel and staff! So many problems with this hotel and staff that I had to write a list during our stay. The staff were consistently on the hotel computer in the lobby checking their email every time we came down from our room. Eva was one of the workers who consistently was checking her email. Eva was the person who was available when we went to complain. She consistently told us our problems would be solved, but she failed at this. Initially when we checked in we were given a handicap room. We are not handicap. The bathroom consistently flooded the first night all over the bathroom floor. Also, in our room upon entry a cockroach was actively climbing on the wall above the bed. The room smelled like mold. The bed frame middle piece broke off exposing nails above our heads. Beside our bed was what looked like poop from an animal or rodent.  The towels had hair balls on two of them. The square pillows were very tiny…like sleeping on couch pillows. The next morning, we complained to Eva about our room. She said she would put us in another room. She then placed us on the third floor. The room was disorganized and half of the hallway smelled like paint and there was construction workers and construction actively going on in this floor. We went down to Eva, yet again and described our room. She said oh that room wasn’t ready since they are cleaning the chairs…but yet she was the one who placed us in that “not ready room”. What! So she again placed us in another room on the construction floor. The third room had a toilet problem. Everytime you flushed the toilet water would spray on the seat behind you and spatter you. Awesome! I love being sprayed with toilet water! Horrible! The following day we complained to yet again Eva (front staff worker) and she said she would have maintance fix the toilet. Upon returning that evening the toilet was still not fixed. Two of the three nights we stayed at this hotel we received a phone call in the morning asking if we were checking out! Two times! The breakfast buffet was unsanitary every morning. The tables and counters were not clean. The food was disorganized and unappealing. I honestly cannot even call this hotel a hotel, it was more like a motel. During check-out process the front staff member asked how our stay was and I reported horrible. I asked if she had the manager name and phone number so I could complain. She said the manager was on site and I asked if I could speak with her. The front staff member knocked on manager door and apparently shared with her I would like to speak with her. After waiting 5 minutes, I told the front staff member I could not wait any longer and said I needed to go. I asked for the manager name: Jen Ghandi is what she reported the manager name to be. I know the manager could hear me as her door was near the front desk.  If the manager cannot even come out to talk with the customer, there is a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Horrible hotel and staff! So many problems with this hotel and staff that I had to write a list during our stay. The staff were consistently on the hotel computer in the lobby checking their email every time we came down from our room. Eva was one of the workers who consistently was checking her email. Eva was the person who was available when we went to complain. She consistently told us our problems would be solved, but she failed at this. 
+Initially when we checked in we were given a handicap room. We are not handicap. 
+The bathroom consistently flooded the first night all over the bathroom floor. Also, in our room upon entry a cockroach was actively climbing on the wall above the bed. The room smelled like mold. The bed frame middle piece broke off exposing nails above our heads. Beside our bed was what looked like poop from an animal or rodent.  The towels had hair balls on two of them. The square pillows were very tiny…like sleeping on couch pillows. 
+The next morning, we complained to Eva about our room. She said she would put us in another room. She then placed us on the third floor. The room was disorganized and half of the hallway smelled like paint and there was construction workers and construction actively going on in this floor. We went down to Eva, yet again and described our room. She said...Horrible hotel and staff! So many problems with this hotel and staff that I had to write a list during our stay. The staff were consistently on the hotel computer in the lobby checking their email every time we came down from our room. Eva was one of the workers who consistently was checking her email. Eva was the person who was available when we went to complain. She consistently told us our problems would be solved, but she failed at this. Initially when we checked in we were given a handicap room. We are not handicap. The bathroom consistently flooded the first night all over the bathroom floor. Also, in our room upon entry a cockroach was actively climbing on the wall above the bed. The room smelled like mold. The bed frame middle piece broke off exposing nails above our heads. Beside our bed was what looked like poop from an animal or rodent.  The towels had hair balls on two of them. The square pillows were very tiny…like sleeping on couch pillows. The next morning, we complained to Eva about our room. She said she would put us in another room. She then placed us on the third floor. The room was disorganized and half of the hallway smelled like paint and there was construction workers and construction actively going on in this floor. We went down to Eva, yet again and described our room. She said oh that room wasn’t ready since they are cleaning the chairs…but yet she was the one who placed us in that “not ready room”. What! So she again placed us in another room on the construction floor. The third room had a toilet problem. Everytime you flushed the toilet water would spray on the seat behind you and spatter you. Awesome! I love being sprayed with toilet water! Horrible! The following day we complained to yet again Eva (front staff worker) and she said she would have maintance fix the toilet. Upon returning that evening the toilet was still not fixed. Two of the three nights we stayed at this hotel we received a phone call in the morning asking if we were checking out! Two times! The breakfast buffet was unsanitary every morning. The tables and counters were not clean. The food was disorganized and unappealing. I honestly cannot even call this hotel a hotel, it was more like a motel. During check-out process the front staff member asked how our stay was and I reported horrible. I asked if she had the manager name and phone number so I could complain. She said the manager was on site and I asked if I could speak with her. The front staff member knocked on manager door and apparently shared with her I would like to speak with her. After waiting 5 minutes, I told the front staff member I could not wait any longer and said I needed to go. I asked for the manager name: Jen Ghandi is what she reported the manager name to be. I know the manager could hear me as her door was near the front desk.  If the manager cannot even come out to talk with the customer, there is a problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r340368826-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340368826</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>RUN AWAY!!!!!!!</t>
+  </si>
+  <si>
+    <t>Terrible Stay and Way over priced.  STAY AT THE HAMPTON DIRECTLY BEHIND THIS LOCATION. Smelly (third floor was under construction and I think they were using buckets for bathrooms), old and stained carpet and dated. Booked for 3 days, left after one (and went to the Hampton Inn). Prices much higher than the Hampton located directly behind it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Terrible Stay and Way over priced.  STAY AT THE HAMPTON DIRECTLY BEHIND THIS LOCATION. Smelly (third floor was under construction and I think they were using buckets for bathrooms), old and stained carpet and dated. Booked for 3 days, left after one (and went to the Hampton Inn). Prices much higher than the Hampton located directly behind it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r335357721-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335357721</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t>Trip for funeral</t>
+  </si>
+  <si>
+    <t>I just needed an inexpensive, but clean and safe place to spend the night.  I found all of that plus a breakfast included and gated parking.  It was just right for a good night's rest and back on the road to continue my 900 mile trip. MarkMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I just needed an inexpensive, but clean and safe place to spend the night.  I found all of that plus a breakfast included and gated parking.  It was just right for a good night's rest and back on the road to continue my 900 mile trip. MarkMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r334413441-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334413441</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Good Hotel for Travel</t>
+  </si>
+  <si>
+    <t>Went for a weekend away with hubby.  I would recommend this hotel as a great option for families (rooms are large) and there is a great breakfast.  Beds are comfortable.  Not the best neighborhood so caution, but great if driving on the way to somewhere on I-10.MoreShow less</t>
+  </si>
+  <si>
+    <t>Went for a weekend away with hubby.  I would recommend this hotel as a great option for families (rooms are large) and there is a great breakfast.  Beds are comfortable.  Not the best neighborhood so caution, but great if driving on the way to somewhere on I-10.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r332813990-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332813990</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Good till the end...</t>
+  </si>
+  <si>
+    <t>I have to say the experience was mostly very good. The location was convenient, rooms were clean and staff was friendly. However an early check out was a bit problematic since the lobby was locked up and no one was available to talk to. Not a big deal unless you really need to speak to someone.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have to say the experience was mostly very good. The location was convenient, rooms were clean and staff was friendly. However an early check out was a bit problematic since the lobby was locked up and no one was available to talk to. Not a big deal unless you really need to speak to someone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r327538623-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327538623</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Houston area</t>
+  </si>
+  <si>
+    <t>Good hotel, friendly staff easy to find, filling breakfast, charges the same as all others. I could recommend this place to friends and family. Hotel is a hotel. What else is to say if there is no problem and stay is as efficient and comfortable as expected?MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Good hotel, friendly staff easy to find, filling breakfast, charges the same as all others. I could recommend this place to friends and family. Hotel is a hotel. What else is to say if there is no problem and stay is as efficient and comfortable as expected?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r327302858-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327302858</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Great stay in Houston</t>
+  </si>
+  <si>
+    <t>Spent by the weekend with the kids for a local event. My hotel stay was excellent. The room was clean and had plenty of room for the kids and I. The breakfast was very satisfying with a good selection of choices.  Overall I highly recommended this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent by the weekend with the kids for a local event. My hotel stay was excellent. The room was clean and had plenty of room for the kids and I. The breakfast was very satisfying with a good selection of choices.  Overall I highly recommended this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r326779276-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326779276</t>
+  </si>
+  <si>
+    <t>11/14/2015</t>
+  </si>
+  <si>
+    <t>Staying on the highway</t>
+  </si>
+  <si>
+    <t>I have stayed here for a week and was not very comfy. I arrived in the evening and the receptionist was bit floppy. When I told her that I want to check in she asked me: "really?". I guess that was already the first sign about the standard in this hotel. The room was old, dark and smelly. The whole hotel had a smell of bleach of something like it. I had the luck to have a room to the back side of the hotel while a colleague of mine had one to the highway side and struggled with the noise. Breakfast was very basic but I guess that is somewhat normal for this hotel category. My request for late check out was turned down rudely and I had to check out 11 am (by the way exactly 11 am I was called up in the room and was asked if I am going to check out. I would not recommend this hotel for business travel and there are more options in the close vicinity which offer a better standard/value for same moneyMoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed here for a week and was not very comfy. I arrived in the evening and the receptionist was bit floppy. When I told her that I want to check in she asked me: "really?". I guess that was already the first sign about the standard in this hotel. The room was old, dark and smelly. The whole hotel had a smell of bleach of something like it. I had the luck to have a room to the back side of the hotel while a colleague of mine had one to the highway side and struggled with the noise. Breakfast was very basic but I guess that is somewhat normal for this hotel category. My request for late check out was turned down rudely and I had to check out 11 am (by the way exactly 11 am I was called up in the room and was asked if I am going to check out. I would not recommend this hotel for business travel and there are more options in the close vicinity which offer a better standard/value for same moneyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r320874788-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320874788</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Average hotel in average locarion</t>
+  </si>
+  <si>
+    <t>the travel agent who booked this for us forgot to mention the hotel was right by a freeway (although the address is a bit of a give away!). it is also nowhere near the city centre. we initially were given a room on the motorway side but luckily we managed to get it changed after insisting a little! breakfast was ok although their fresh milk had bits in them. the best part of it was the self made waffle. the pool is lovely although not heated so a little cold for October but offers privacy. there is also secure Parking and a lot of restaurant around although if you don't have a car, this probably isn't the place for you. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>the travel agent who booked this for us forgot to mention the hotel was right by a freeway (although the address is a bit of a give away!). it is also nowhere near the city centre. we initially were given a room on the motorway side but luckily we managed to get it changed after insisting a little! breakfast was ok although their fresh milk had bits in them. the best part of it was the self made waffle. the pool is lovely although not heated so a little cold for October but offers privacy. there is also secure Parking and a lot of restaurant around although if you don't have a car, this probably isn't the place for you. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r320795618-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320795618</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Horrible Customer Service</t>
+  </si>
+  <si>
+    <t>I am a member of their rewards program, we showed up on Oct 15,2015 and without even looking up, the lady at the front desk claim to have only rooms with double queens and "thats it!" so we walked out and tried to make a reservation via 800 number and rewards program phone, and they told us there was plenty of king size bedrooms, they were ready to book one for us, but my spouse was afraid to go back in, and probably get our vehicle damaged, so we went next door to the HAMPTON INN and received EXCELLENT customer service, not to mention Cheaper in a brand new building! SO LONG Best Western rewards!MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a member of their rewards program, we showed up on Oct 15,2015 and without even looking up, the lady at the front desk claim to have only rooms with double queens and "thats it!" so we walked out and tried to make a reservation via 800 number and rewards program phone, and they told us there was plenty of king size bedrooms, they were ready to book one for us, but my spouse was afraid to go back in, and probably get our vehicle damaged, so we went next door to the HAMPTON INN and received EXCELLENT customer service, not to mention Cheaper in a brand new building! SO LONG Best Western rewards!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r320285680-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320285680</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Very good experience</t>
+  </si>
+  <si>
+    <t>The only thing not excellent is the location. There were some awkward businesses around the hotel and it felt not right at night. Apart from that, the hotel and the service were really good. Breakfast it delicious and people is really nice and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>The only thing not excellent is the location. There were some awkward businesses around the hotel and it felt not right at night. Apart from that, the hotel and the service were really good. Breakfast it delicious and people is really nice and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r311962327-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311962327</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>no working pool or hot tub</t>
+  </si>
+  <si>
+    <t>wasn't working nor was it advertised it was none working. was told it was on website pool was not working. room was clean airconditioning good. bed was comfortable no channel guide. shower was good plenty of hot water and pressure.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>wasn't working nor was it advertised it was none working. was told it was on website pool was not working. room was clean airconditioning good. bed was comfortable no channel guide. shower was good plenty of hot water and pressure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r292235142-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292235142</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Pleasant Stay. Recommend!</t>
+  </si>
+  <si>
+    <t>I needed to find two hotel rooms for one night at around 7 PM on a weekday. I didn't have time to research my hotel options, but I've never had a bad experience at a Best Western, so I booked it. I made the right choice! The hotel was quiet, well-maintained, and the staff was helpful, including accommodating my special requests (e.g., rooms near each other, additional time on check-out day). I would stay here again.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r291217650-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291217650</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad, terrible and worst </t>
+  </si>
+  <si>
+    <t>we stayed at this hotel for 2 nights the front staff very unfriendly... I asked about the aquarium and she told me I could look on the Internet... I knew that... I was asking her!!! nasty hotel, tiles cracked, carpet dirty, mold in room bathroom... TERRIBLE breakfast they reuse everything every day... the bisquits were probably 4 days or older... to hard for the plastic fork... I saw them repack in plastic tubs for the next day... pool is falling apart had numerous holes in it that scrapes your feet... also wasp nest all overthen a family that was in the pool told us they live 2 blocks away and come stay to party and swim... they had ice chest of booze and food and they called other family to come and go swimming there and they gave them there security card to get in the parking lot and go through gatesTHEN they let their son about 5 years old urinate 3 times on the side of the pool and my young granddaughter saw him each timethis is not even a 1 starAND U KNOW IT'S BAD WHEN U CHECK OUT AND THEY DON'T ASK HOW WAS YOUR STAY!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>we stayed at this hotel for 2 nights the front staff very unfriendly... I asked about the aquarium and she told me I could look on the Internet... I knew that... I was asking her!!! nasty hotel, tiles cracked, carpet dirty, mold in room bathroom... TERRIBLE breakfast they reuse everything every day... the bisquits were probably 4 days or older... to hard for the plastic fork... I saw them repack in plastic tubs for the next day... pool is falling apart had numerous holes in it that scrapes your feet... also wasp nest all overthen a family that was in the pool told us they live 2 blocks away and come stay to party and swim... they had ice chest of booze and food and they called other family to come and go swimming there and they gave them there security card to get in the parking lot and go through gatesTHEN they let their son about 5 years old urinate 3 times on the side of the pool and my young granddaughter saw him each timethis is not even a 1 starAND U KNOW IT'S BAD WHEN U CHECK OUT AND THEY DON'T ASK HOW WAS YOUR STAY!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r277134906-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277134906</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>our stay</t>
+  </si>
+  <si>
+    <t>Rooms are nice. Really like the gated parking. Room was quite even along the major highway. Our room was on the back side. The hotel work with us on getting a room close to other family members staying there also.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r274581916-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274581916</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Excellent Staff Service</t>
+  </si>
+  <si>
+    <t>Everything was perfect the only thing is the breakfast can be a little bit better. The pool area looked great for family!  The quality of the room and the overall was excellent.  I would definitely consider staying here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r272903465-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272903465</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Hope you won't need anything at 4am</t>
+  </si>
+  <si>
+    <t>Nice looking place, nice rooms , but the lack of availability to the lobby at 4am for business travelers is not good. Lobby is locked at 4 am, no personnel in lobby, no one answers the phone, the room phone was turned off after hours, had to call the lobby on my cell, and still no one answered. With no one in the locked lobby, could not print a boarding pass at 4am, or get checked out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r258887904-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258887904</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Super Nice!!</t>
+  </si>
+  <si>
+    <t>Front desk(Amanda and KJ)were very helpful!!! The staff was very helpful and friendly.......rooms very clean and up to date........ very good breakfast.......great stay and felt safe with the gated entrance........very good service and excellent value$$$$$$$MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded April 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2015</t>
+  </si>
+  <si>
+    <t>Front desk(Amanda and KJ)were very helpful!!! The staff was very helpful and friendly.......rooms very clean and up to date........ very good breakfast.......great stay and felt safe with the gated entrance........very good service and excellent value$$$$$$$More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r258197361-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258197361</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t>Watch Your Credit Card</t>
+  </si>
+  <si>
+    <t>They tried to hit my card with a bunch of small charges after I checked out, luckily my bank caught on and blocked my card due to suspicious activity - which was this hotel. The maids do not speak English, which is hard if you need to talk to them to change towels or something.MoreShow less</t>
+  </si>
+  <si>
+    <t>They tried to hit my card with a bunch of small charges after I checked out, luckily my bank caught on and blocked my card due to suspicious activity - which was this hotel. The maids do not speak English, which is hard if you need to talk to them to change towels or something.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r257607013-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257607013</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>nice hotel, near by movie theater, like 1/4 mile away, restaurants near by, walmart, fiesta stores near by, 15 mins away to down town Houston, 15 mins away to Lakewood Church, small breakfast area, but, good choices,MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2015</t>
+  </si>
+  <si>
+    <t>nice hotel, near by movie theater, like 1/4 mile away, restaurants near by, walmart, fiesta stores near by, 15 mins away to down town Houston, 15 mins away to Lakewood Church, small breakfast area, but, good choices,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r254804052-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254804052</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>FIrst Class FRont Desk Staff</t>
+  </si>
+  <si>
+    <t>The front desk staff was beyond helpful. I am a truck driver that had to put my truck in the shop at the Mack dealership. A 1 night stay turned into a 5 night stay. It was a daily thing as I had no idea when my truck would be ready. They matched the  internet rate so that I did not have to keep going on line to make a reservation. One of the workers took me to get a haircut on his break since I had no transportation and was not familiar with the bus system. EXCEPTIONAL !!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk staff was beyond helpful. I am a truck driver that had to put my truck in the shop at the Mack dealership. A 1 night stay turned into a 5 night stay. It was a daily thing as I had no idea when my truck would be ready. They matched the  internet rate so that I did not have to keep going on line to make a reservation. One of the workers took me to get a haircut on his break since I had no transportation and was not familiar with the bus system. EXCEPTIONAL !!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r252694987-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252694987</t>
+  </si>
+  <si>
+    <t>02/04/2015</t>
+  </si>
+  <si>
+    <t>Just an overnight stay</t>
+  </si>
+  <si>
+    <t>It was a nice hotel. The employees were very nice and helpful. The hotel is beautiful from the outside, but the rooms are old and out dated. The internet worked great. The breakfast left a lot to be desired, but it was free. I would recommend if you need to get off the interstate and sleep to grab a room.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a nice hotel. The employees were very nice and helpful. The hotel is beautiful from the outside, but the rooms are old and out dated. The internet worked great. The breakfast left a lot to be desired, but it was free. I would recommend if you need to get off the interstate and sleep to grab a room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r251009706-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251009706</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Plenty of better places to stay than here.</t>
+  </si>
+  <si>
+    <t>I jut returned from 4 nights at this hotel.  Location sucks - the neighborhood is aweful - local establishments have bars on the windows.  People don't walk outside in this area.  The hotel DOES provide gated parking.Besides the neighborhood, the hotel itself is only ok at best.  Nothing really stands out about his hotel.  Lobby was ok.  Room was spacious, clean enough.  Bed was uncomfortable - had a neck ache every morning.Staff was very unprofessional - talking on their personal cell phone while checking in and checking out patrons.  Cleaning staff would loiter in the lobby on their cell phone or gossip among themselves.Would I stay here again?  Never.  There are so many better choices in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded March 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2015</t>
+  </si>
+  <si>
+    <t>I jut returned from 4 nights at this hotel.  Location sucks - the neighborhood is aweful - local establishments have bars on the windows.  People don't walk outside in this area.  The hotel DOES provide gated parking.Besides the neighborhood, the hotel itself is only ok at best.  Nothing really stands out about his hotel.  Lobby was ok.  Room was spacious, clean enough.  Bed was uncomfortable - had a neck ache every morning.Staff was very unprofessional - talking on their personal cell phone while checking in and checking out patrons.  Cleaning staff would loiter in the lobby on their cell phone or gossip among themselves.Would I stay here again?  Never.  There are so many better choices in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r248836603-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248836603</t>
+  </si>
+  <si>
+    <t>01/11/2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable...Staff are amazing!</t>
+  </si>
+  <si>
+    <t>What do you need when travelling... Clean room and a good staff.... You have both here!!
+The rooms were clean. I mean CLEAN. Yes the decor might be a bit dated, but you can tell the staff takes pride in their hotel.
+A bit disappointed that the hot tub was NOT hot. I mean it was as cold or colder then the pool. 
+We are Canadian and thus antifreeze in the blood but still could not get ourselves convinced to go into the pool or hot tub. 
+The breakfast is the typical powered eggs, sausage, cereal etc. Decent and fills the void but that's the standard from Best Western corporate now. Shame because at one time it was a lot better.
+Chloe on the front desk was excellent. Informative and cheerful after a long long flight. She suggested that we call a local taxi driver Tony to help get us to dinner. Tony was excellent, punctual and humorous. 
+The next day is when the staff really went out of their way. My father who was travelling with us was really ill ( flu). I talked to Eva on the front desk about the closest drugstore. We didn't have a car and although it was pouring rain we had a job to do. We asked also to borrow an umbrella. Eva wouldn't hear of it. She gave her keys to another staff  (Marissa) and off we went to the drugstore. My...What do you need when travelling... Clean room and a good staff.... You have both here!!The rooms were clean. I mean CLEAN. Yes the decor might be a bit dated, but you can tell the staff takes pride in their hotel.A bit disappointed that the hot tub was NOT hot. I mean it was as cold or colder then the pool. We are Canadian and thus antifreeze in the blood but still could not get ourselves convinced to go into the pool or hot tub. The breakfast is the typical powered eggs, sausage, cereal etc. Decent and fills the void but that's the standard from Best Western corporate now. Shame because at one time it was a lot better.Chloe on the front desk was excellent. Informative and cheerful after a long long flight. She suggested that we call a local taxi driver Tony to help get us to dinner. Tony was excellent, punctual and humorous. The next day is when the staff really went out of their way. My father who was travelling with us was really ill ( flu). I talked to Eva on the front desk about the closest drugstore. We didn't have a car and although it was pouring rain we had a job to do. We asked also to borrow an umbrella. Eva wouldn't hear of it. She gave her keys to another staff  (Marissa) and off we went to the drugstore. My father has underlying medical conditions so I needed to talk with the pharmacist. It was Sunday at 9:40 am and the pharmacist didn't start until 10. We said we would walk back. NOPE! She waited with us. Our trip was saved with the kindness of these lovely ladies. I cannot thank them again for their generosity and compassion. We would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>What do you need when travelling... Clean room and a good staff.... You have both here!!
+The rooms were clean. I mean CLEAN. Yes the decor might be a bit dated, but you can tell the staff takes pride in their hotel.
+A bit disappointed that the hot tub was NOT hot. I mean it was as cold or colder then the pool. 
+We are Canadian and thus antifreeze in the blood but still could not get ourselves convinced to go into the pool or hot tub. 
+The breakfast is the typical powered eggs, sausage, cereal etc. Decent and fills the void but that's the standard from Best Western corporate now. Shame because at one time it was a lot better.
+Chloe on the front desk was excellent. Informative and cheerful after a long long flight. She suggested that we call a local taxi driver Tony to help get us to dinner. Tony was excellent, punctual and humorous. 
+The next day is when the staff really went out of their way. My father who was travelling with us was really ill ( flu). I talked to Eva on the front desk about the closest drugstore. We didn't have a car and although it was pouring rain we had a job to do. We asked also to borrow an umbrella. Eva wouldn't hear of it. She gave her keys to another staff  (Marissa) and off we went to the drugstore. My...What do you need when travelling... Clean room and a good staff.... You have both here!!The rooms were clean. I mean CLEAN. Yes the decor might be a bit dated, but you can tell the staff takes pride in their hotel.A bit disappointed that the hot tub was NOT hot. I mean it was as cold or colder then the pool. We are Canadian and thus antifreeze in the blood but still could not get ourselves convinced to go into the pool or hot tub. The breakfast is the typical powered eggs, sausage, cereal etc. Decent and fills the void but that's the standard from Best Western corporate now. Shame because at one time it was a lot better.Chloe on the front desk was excellent. Informative and cheerful after a long long flight. She suggested that we call a local taxi driver Tony to help get us to dinner. Tony was excellent, punctual and humorous. The next day is when the staff really went out of their way. My father who was travelling with us was really ill ( flu). I talked to Eva on the front desk about the closest drugstore. We didn't have a car and although it was pouring rain we had a job to do. We asked also to borrow an umbrella. Eva wouldn't hear of it. She gave her keys to another staff  (Marissa) and off we went to the drugstore. My father has underlying medical conditions so I needed to talk with the pharmacist. It was Sunday at 9:40 am and the pharmacist didn't start until 10. We said we would walk back. NOPE! She waited with us. Our trip was saved with the kindness of these lovely ladies. I cannot thank them again for their generosity and compassion. We would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r229767444-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229767444</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Good Business Traveller Hotel</t>
+  </si>
+  <si>
+    <t>I just got back from Houston for 2 nights on a business trip.  This place was great for me as it was right off the highway.  There were many restaurants within a mile including 3 of the Pappas chains (highly recommended).   The lobby was ok, nothing special.  The staff was friendly, but not super helpful.  The first night I arrived late and was hungry and I asked for a restaurant recommendation that was close, and she told me to go to Denny's.  Not really what I was looking for, but I found a bunch of nicer choices.  Overall a postive stay.  I would not recommend this for tourists or for couples, but for a business traveller it was perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I just got back from Houston for 2 nights on a business trip.  This place was great for me as it was right off the highway.  There were many restaurants within a mile including 3 of the Pappas chains (highly recommended).   The lobby was ok, nothing special.  The staff was friendly, but not super helpful.  The first night I arrived late and was hungry and I asked for a restaurant recommendation that was close, and she told me to go to Denny's.  Not really what I was looking for, but I found a bunch of nicer choices.  Overall a postive stay.  I would not recommend this for tourists or for couples, but for a business traveller it was perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r229461572-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229461572</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>NO way don't stay here</t>
+  </si>
+  <si>
+    <t>I love priceline. I love Tripadvisor. They're great services. This time, I was led astray though. By both of them. Sucks to say because I rely heavily on Tripadvisor to know if a hotel is a dump or not.  Most reviews for this hotel were nominal enough, so I gave it a go. We had 5 nights reserved and paid for...I didn't use a one of them. I have never left a hotel, knowing full well that I may not get my $ back because it was that bad. Appearance- yeah, it looked ok. In fact, I'd say that it was fine. But it was wet. The whole building was wet. The musk of thick mold hit you in the face when you walk in and the air was saturated. It was TERRIBLE. I had a headache within minutes of being there. Mind you, I'm also sensitive to this thing. My family owns a water damage and mold remediation company- and I know when a building is wet and moldy. I've been on thousands of jobsites from homes to large businesses where water and mold are a problem. This was no different. It was AWFUL. DOn't go there. Just don't do it. Save your money and your time. I wouldn't stay here if it were FREE.MoreShow less</t>
+  </si>
+  <si>
+    <t>I love priceline. I love Tripadvisor. They're great services. This time, I was led astray though. By both of them. Sucks to say because I rely heavily on Tripadvisor to know if a hotel is a dump or not.  Most reviews for this hotel were nominal enough, so I gave it a go. We had 5 nights reserved and paid for...I didn't use a one of them. I have never left a hotel, knowing full well that I may not get my $ back because it was that bad. Appearance- yeah, it looked ok. In fact, I'd say that it was fine. But it was wet. The whole building was wet. The musk of thick mold hit you in the face when you walk in and the air was saturated. It was TERRIBLE. I had a headache within minutes of being there. Mind you, I'm also sensitive to this thing. My family owns a water damage and mold remediation company- and I know when a building is wet and moldy. I've been on thousands of jobsites from homes to large businesses where water and mold are a problem. This was no different. It was AWFUL. DOn't go there. Just don't do it. Save your money and your time. I wouldn't stay here if it were FREE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r211067962-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211067962</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>Very Nice Room</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights,  The room is very nice, clean like a room in 4stars hotel, with nice bathroom, safety box, microwave, fridge, free wireless, etc.  They gave a free good breakfast and safe parking place too.  Overall, we are happy to stay there.  The hotel rate is very good as we booked via priceline.comMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded March 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2015</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights,  The room is very nice, clean like a room in 4stars hotel, with nice bathroom, safety box, microwave, fridge, free wireless, etc.  They gave a free good breakfast and safe parking place too.  Overall, we are happy to stay there.  The hotel rate is very good as we booked via priceline.comMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r199923051-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199923051</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>Clean hotel nice staff</t>
+  </si>
+  <si>
+    <t>Stayed at hotel while visiting Houston for game at minute maid ( about 15 minute drive) very convenient hotel easy to find right off highway Room clean very cool place has a pool nice buffet breakfast juice coffee eggs sausage waffles cereals and misc bread very good and free Internet was not got very slow and worked part of time   MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at hotel while visiting Houston for game at minute maid ( about 15 minute drive) very convenient hotel easy to find right off highway Room clean very cool place has a pool nice buffet breakfast juice coffee eggs sausage waffles cereals and misc bread very good and free Internet was not got very slow and worked part of time   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r197344706-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197344706</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>Just Fine</t>
+  </si>
+  <si>
+    <t>We needed a place to crash for a night in Houston. This was farther away than we wanted, but priced just right for what we needed. Staff was very friendly and helpful, and the bed was extremely comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We needed a place to crash for a night in Houston. This was farther away than we wanted, but priced just right for what we needed. Staff was very friendly and helpful, and the bed was extremely comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r181919089-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181919089</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>nice and new</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised with this hotel. Rooms are spacious, new and clean. We had a quiet room toward the back of the hotel so that gave us a nice view over the fields right behind the building. The hotel is ok to stay at if you have a car as it is located 20 min. off downtown Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2014</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised with this hotel. Rooms are spacious, new and clean. We had a quiet room toward the back of the hotel so that gave us a nice view over the fields right behind the building. The hotel is ok to stay at if you have a car as it is located 20 min. off downtown Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r178968866-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178968866</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised!</t>
+  </si>
+  <si>
+    <t>I was very pleased with the cleanliness of the rooms and the friendliness and efficiency of the staff. I would definitely recommend staying at this hotel. The hotel is located outside the city of Houston so it would help if you have transportation. For the price you can't beat it, and the free breakfast was very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I was very pleased with the cleanliness of the rooms and the friendliness and efficiency of the staff. I would definitely recommend staying at this hotel. The hotel is located outside the city of Houston so it would help if you have transportation. For the price you can't beat it, and the free breakfast was very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r176558872-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176558872</t>
+  </si>
+  <si>
+    <t>09/09/2013</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable</t>
+  </si>
+  <si>
+    <t>Everything about our stay was good. We were in town for a wedding and we usually stay at Best Western chain of hotels for the points. This Best Western was clean, the room was big, the bathroom was clean and everything worked great. There was a lumpy pillow, but that was easily thrown on the floor. The breakfast was a typical free hotel breakfast with a Texas shaped waffle. Overall, this was a good place to stay. There was even gated parking, but we didn't realize it until we had already parked.MoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded September 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2013</t>
+  </si>
+  <si>
+    <t>Everything about our stay was good. We were in town for a wedding and we usually stay at Best Western chain of hotels for the points. This Best Western was clean, the room was big, the bathroom was clean and everything worked great. There was a lumpy pillow, but that was easily thrown on the floor. The breakfast was a typical free hotel breakfast with a Texas shaped waffle. Overall, this was a good place to stay. There was even gated parking, but we didn't realize it until we had already parked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r168258690-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168258690</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>This hotel was very nice and a decent price.  The staff was very prompt and courteous with any needs we had.  The previous comments about the area concerned me, but we did not have any problems. The gated parking is a plus!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded August 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2013</t>
+  </si>
+  <si>
+    <t>This hotel was very nice and a decent price.  The staff was very prompt and courteous with any needs we had.  The previous comments about the area concerned me, but we did not have any problems. The gated parking is a plus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r167877615-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167877615</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Nice Surprise - Great Hotel</t>
+  </si>
+  <si>
+    <t>What nice surprise, this is a very nice hotel.  We were very impressed with the hotel and the room.  It was very clean and well decorated.  We had a very restful nights sleep.  We only stayed one night as we passed through on our way back west, but would definitely stay again if in the area.  The morning breakfast was nice and had biscuits and gravy, scrambled eggs, sausages, as well as the normal fare.  The hotel staff was very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>What nice surprise, this is a very nice hotel.  We were very impressed with the hotel and the room.  It was very clean and well decorated.  We had a very restful nights sleep.  We only stayed one night as we passed through on our way back west, but would definitely stay again if in the area.  The morning breakfast was nice and had biscuits and gravy, scrambled eggs, sausages, as well as the normal fare.  The hotel staff was very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r167737906-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167737906</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Excellent stay for great value</t>
+  </si>
+  <si>
+    <t>This hotel wasn't in a pristine location but not too far from the city. Front desk receptionist Robert and Itzel, were courteous and very accommodating. They served an excellent hot breakfast which made it very convenient for me and my family to get up and go. Gated parking was optional but not needed. Rooms were clean and very spacious. Would of like to try a deluxe room next time :-) Overall a great stay and would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel wasn't in a pristine location but not too far from the city. Front desk receptionist Robert and Itzel, were courteous and very accommodating. They served an excellent hot breakfast which made it very convenient for me and my family to get up and go. Gated parking was optional but not needed. Rooms were clean and very spacious. Would of like to try a deluxe room next time :-) Overall a great stay and would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r154945903-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154945903</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>I was very pleased on how easy to was to check in and I liked how friendly the front desk clerk was. The room was a good value for the size and was clean except for a couple of very noticeable spots. If there would have been no spots I probably would have rated this hotel a 5. That was something that could have very easily been taken care of before anyone was checked into the room. I stayed for 3 nights and was pleased with the housekeeping service. I also like that the hotel offers free hot breakfast every morning, that is a big plus in my opinion. I hope they clean the carpets for future guests,if so I would probably consider staying here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded August 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2013</t>
+  </si>
+  <si>
+    <t>I was very pleased on how easy to was to check in and I liked how friendly the front desk clerk was. The room was a good value for the size and was clean except for a couple of very noticeable spots. If there would have been no spots I probably would have rated this hotel a 5. That was something that could have very easily been taken care of before anyone was checked into the room. I stayed for 3 nights and was pleased with the housekeeping service. I also like that the hotel offers free hot breakfast every morning, that is a big plus in my opinion. I hope they clean the carpets for future guests,if so I would probably consider staying here again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r153308064-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153308064</t>
+  </si>
+  <si>
+    <t>02/27/2013</t>
+  </si>
+  <si>
+    <t>Loved the hotel!</t>
+  </si>
+  <si>
+    <t>I loved the hotel! The staff was very friendly. The girl who was working the front desk was very accomodating. Our flight got into Houston around 11am and check in wasn't until 3pm and we were tired and just wanted to relax so she went out of her way to make sure our hotel was ready for us when we got there and we were able to check in early. The rooms are nice and clean and very quite. I don't know if the rooms are sound proof or not but at one point in the hotel I was in the hallway and could hear the people in the room next to us laughing and screaming but when I was in my room I couldn't hear them at all, so that was nice.Only thing I would say is they should automatically put the complimentary shampoo and soap in the rooms we had to go get it from the desk. But that was the only thing! Would stay here again!Also, I felt more safe with the gated parking because our first day there just down the road on East Fwy when we were leaving the hotel there were some guys fighting, kind of scary.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded February 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2013</t>
+  </si>
+  <si>
+    <t>I loved the hotel! The staff was very friendly. The girl who was working the front desk was very accomodating. Our flight got into Houston around 11am and check in wasn't until 3pm and we were tired and just wanted to relax so she went out of her way to make sure our hotel was ready for us when we got there and we were able to check in early. The rooms are nice and clean and very quite. I don't know if the rooms are sound proof or not but at one point in the hotel I was in the hallway and could hear the people in the room next to us laughing and screaming but when I was in my room I couldn't hear them at all, so that was nice.Only thing I would say is they should automatically put the complimentary shampoo and soap in the rooms we had to go get it from the desk. But that was the only thing! Would stay here again!Also, I felt more safe with the gated parking because our first day there just down the road on East Fwy when we were leaving the hotel there were some guys fighting, kind of scary.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r147606589-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147606589</t>
+  </si>
+  <si>
+    <t>12/17/2012</t>
+  </si>
+  <si>
+    <t>We had stayed at this hotel when it first opened like 13 or 14 years ago.  It was always pleasant and nice.  This time was different, we were greeted and the person was very nice.  She made a point to let our party know that this was a Smoke-Free hotel.  I was surprised when she said there's gated parking in the back.  That did not use to be there.  As soon as we walked out of the elevator, we can all smell the lingering cigarettes.  The price was ok, I remembered it as being cheaper, but I guess I didn't account of inflation.  Breakfast was good.  You get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded February 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2013</t>
+  </si>
+  <si>
+    <t>We had stayed at this hotel when it first opened like 13 or 14 years ago.  It was always pleasant and nice.  This time was different, we were greeted and the person was very nice.  She made a point to let our party know that this was a Smoke-Free hotel.  I was surprised when she said there's gated parking in the back.  That did not use to be there.  As soon as we walked out of the elevator, we can all smell the lingering cigarettes.  The price was ok, I remembered it as being cheaper, but I guess I didn't account of inflation.  Breakfast was good.  You get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r132486415-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132486415</t>
+  </si>
+  <si>
+    <t>06/21/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We usually think about writing a TripAdvisor review when we have a really bad, negative experience in a hotel.  But good companies deserve recognition, hence this review.  We have stayed in so many crappy hotels, but this Best Western Heritage Inn ain't one of them.  The best part is that we paid similar prices compared to the crappy hotels we've stayed in the past.  To start with the hotel facilities and the room itself were in great shape and clean conditions.  The furniture in the room looks new, same as sheets and towels.  Our room has a mini fridge and microwave and they even put two Arm &amp; Hammer toothpaste cases in the bathroom.  The complimentary breakfast is amazing.  Other hotels just give you continental breakfast (basically a load of carbs), but this hotel gave us a hot meal which included biscuits and gravy, sausage, and eggs.  They also have a waffle maker which makes the waffle in the shape of Texas.  In addition, they offer gated parking, although I don't think this is necessary since the neighborhood doesn't look dangerous.  They also have decent swimming pool/jacuzzi area.  Lastly,  the only complain that I have is that the internet is slow, if you want faster internet, then you have to pay a fee for that.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded July 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2012</t>
+  </si>
+  <si>
+    <t>We usually think about writing a TripAdvisor review when we have a really bad, negative experience in a hotel.  But good companies deserve recognition, hence this review.  We have stayed in so many crappy hotels, but this Best Western Heritage Inn ain't one of them.  The best part is that we paid similar prices compared to the crappy hotels we've stayed in the past.  To start with the hotel facilities and the room itself were in great shape and clean conditions.  The furniture in the room looks new, same as sheets and towels.  Our room has a mini fridge and microwave and they even put two Arm &amp; Hammer toothpaste cases in the bathroom.  The complimentary breakfast is amazing.  Other hotels just give you continental breakfast (basically a load of carbs), but this hotel gave us a hot meal which included biscuits and gravy, sausage, and eggs.  They also have a waffle maker which makes the waffle in the shape of Texas.  In addition, they offer gated parking, although I don't think this is necessary since the neighborhood doesn't look dangerous.  They also have decent swimming pool/jacuzzi area.  Lastly,  the only complain that I have is that the internet is slow, if you want faster internet, then you have to pay a fee for that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r131930550-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131930550</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>Decent Hotel at a Fair Price</t>
+  </si>
+  <si>
+    <t>This is a "You get what you pay for" hotel.  We traveled to Houston and didn't want to pay downtown prices.  This hotel was convenient, clean and had a decent complimentary breakfast.  It has a small workout room - not all the equipment worked, hot tub - wasn't heated and a few computers in the lobby for Internet access that were working.  All-in-all not a bad deal if you are looking for a good deal in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded June 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2012</t>
+  </si>
+  <si>
+    <t>This is a "You get what you pay for" hotel.  We traveled to Houston and didn't want to pay downtown prices.  This hotel was convenient, clean and had a decent complimentary breakfast.  It has a small workout room - not all the equipment worked, hot tub - wasn't heated and a few computers in the lobby for Internet access that were working.  All-in-all not a bad deal if you are looking for a good deal in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r131585679-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131585679</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>Nice motel, wonderful staff!</t>
+  </si>
+  <si>
+    <t>We stayed at this motel for 7 days, I couldn't have ask for anything more... The price was reasonable, the rooms were clean, the breakfast was way more than your typical "buffet" and the employees went above and beyond! they made us feel very welcome and were there to accommodate our every need. We booked a Hilton in Daytona Beach and this by far surpassed it! We would definantly stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded June 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2012</t>
+  </si>
+  <si>
+    <t>We stayed at this motel for 7 days, I couldn't have ask for anything more... The price was reasonable, the rooms were clean, the breakfast was way more than your typical "buffet" and the employees went above and beyond! they made us feel very welcome and were there to accommodate our every need. We booked a Hilton in Daytona Beach and this by far surpassed it! We would definantly stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r118755550-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118755550</t>
+  </si>
+  <si>
+    <t>09/29/2011</t>
+  </si>
+  <si>
+    <t>Mediocre property with horrible service</t>
+  </si>
+  <si>
+    <t>I've stayed here several times even though it really isn't in the best neighborhood. The location suits my needs for a quick getaway to Houston, though. Until my most recent stay, everything had been fine. Never great. Never awful. Pretty much what you would expect from a mid-priced chain motel.
+However, on my last (and I do mean LAST) stay, my wife and I checked into a Jacuzzi suite and went out in search of dinner. After dinner, we came back ready for a dip in the hot tub. Well, there was more tub than there was hot. In fact, there was no hot. No hot water was to be had in our suite. I called the desk and was told, with a bit of attitude, that they would let maintenance know about the problem in the morning. No offer to change to a room with hot water, either with or without a Jacuzzi. I explained that we would be up and gone before maintenance was available the next morning. Well, she said, she would let the manager know, too...in the morning.
+I called Best Western customer care and while they seemed sympathetic, they were impotent, as "each location is independently owned and operated." Further attempts to get to the bottom of the situation resulted in an admission by the motel that they were at fault and an offer to refund 10% of the charge. Excuse me, but I paid...I've stayed here several times even though it really isn't in the best neighborhood. The location suits my needs for a quick getaway to Houston, though. Until my most recent stay, everything had been fine. Never great. Never awful. Pretty much what you would expect from a mid-priced chain motel.However, on my last (and I do mean LAST) stay, my wife and I checked into a Jacuzzi suite and went out in search of dinner. After dinner, we came back ready for a dip in the hot tub. Well, there was more tub than there was hot. In fact, there was no hot. No hot water was to be had in our suite. I called the desk and was told, with a bit of attitude, that they would let maintenance know about the problem in the morning. No offer to change to a room with hot water, either with or without a Jacuzzi. I explained that we would be up and gone before maintenance was available the next morning. Well, she said, she would let the manager know, too...in the morning.I called Best Western customer care and while they seemed sympathetic, they were impotent, as "each location is independently owned and operated." Further attempts to get to the bottom of the situation resulted in an admission by the motel that they were at fault and an offer to refund 10% of the charge. Excuse me, but I paid twice the regular room rate to get the damn jacuzzi that provided no value whatsoever and then we had to take cold showers the next morning. I don't think $12 is quite going to make up for that. That was all they had to offer, though. Take a moment and imagine my response. I got the (apparently useless) Discover Card folks involved and will be filing a complaint with the Better Business Bureau, as well.You can tell a lot about a business by how they handle a situation gone wrong. I understand that these things happen. Breakers trip and water heaters no longer heat water. If that happens to a paying guest and you value their business, you should go out of your way to make it right. Obviously, this place doesn't value my business. Don't expect that they will value yours.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded November 9, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2011</t>
+  </si>
+  <si>
+    <t>I've stayed here several times even though it really isn't in the best neighborhood. The location suits my needs for a quick getaway to Houston, though. Until my most recent stay, everything had been fine. Never great. Never awful. Pretty much what you would expect from a mid-priced chain motel.
+However, on my last (and I do mean LAST) stay, my wife and I checked into a Jacuzzi suite and went out in search of dinner. After dinner, we came back ready for a dip in the hot tub. Well, there was more tub than there was hot. In fact, there was no hot. No hot water was to be had in our suite. I called the desk and was told, with a bit of attitude, that they would let maintenance know about the problem in the morning. No offer to change to a room with hot water, either with or without a Jacuzzi. I explained that we would be up and gone before maintenance was available the next morning. Well, she said, she would let the manager know, too...in the morning.
+I called Best Western customer care and while they seemed sympathetic, they were impotent, as "each location is independently owned and operated." Further attempts to get to the bottom of the situation resulted in an admission by the motel that they were at fault and an offer to refund 10% of the charge. Excuse me, but I paid...I've stayed here several times even though it really isn't in the best neighborhood. The location suits my needs for a quick getaway to Houston, though. Until my most recent stay, everything had been fine. Never great. Never awful. Pretty much what you would expect from a mid-priced chain motel.However, on my last (and I do mean LAST) stay, my wife and I checked into a Jacuzzi suite and went out in search of dinner. After dinner, we came back ready for a dip in the hot tub. Well, there was more tub than there was hot. In fact, there was no hot. No hot water was to be had in our suite. I called the desk and was told, with a bit of attitude, that they would let maintenance know about the problem in the morning. No offer to change to a room with hot water, either with or without a Jacuzzi. I explained that we would be up and gone before maintenance was available the next morning. Well, she said, she would let the manager know, too...in the morning.I called Best Western customer care and while they seemed sympathetic, they were impotent, as "each location is independently owned and operated." Further attempts to get to the bottom of the situation resulted in an admission by the motel that they were at fault and an offer to refund 10% of the charge. Excuse me, but I paid twice the regular room rate to get the damn jacuzzi that provided no value whatsoever and then we had to take cold showers the next morning. I don't think $12 is quite going to make up for that. That was all they had to offer, though. Take a moment and imagine my response. I got the (apparently useless) Discover Card folks involved and will be filing a complaint with the Better Business Bureau, as well.You can tell a lot about a business by how they handle a situation gone wrong. I understand that these things happen. Breakers trip and water heaters no longer heat water. If that happens to a paying guest and you value their business, you should go out of your way to make it right. Obviously, this place doesn't value my business. Don't expect that they will value yours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r116309541-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116309541</t>
+  </si>
+  <si>
+    <t>08/05/2011</t>
+  </si>
+  <si>
+    <t>very clean</t>
+  </si>
+  <si>
+    <t>we had bought our room off of hotwire &amp; was afraid of the price but when we arrived it was very clean &amp; smelled clean, the staff went out of their way to accomadate us. The breakfast could have been better, but we were just passing through going to California to work, so it took care of our needs, it was very quite &amp; there were a lot of places to eat nearby, within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>we had bought our room off of hotwire &amp; was afraid of the price but when we arrived it was very clean &amp; smelled clean, the staff went out of their way to accomadate us. The breakfast could have been better, but we were just passing through going to California to work, so it took care of our needs, it was very quite &amp; there were a lot of places to eat nearby, within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r115899750-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115899750</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Good Hotel Weird Location</t>
+  </si>
+  <si>
+    <t>Everything about this hotel was nice. Breakfast, pool, large clean rooms, gated parking. It was billed as near downtown. It is not. It is right by the I-10 freeway east of downtown by 8 miles. The neighborhood is a little questionable by sight but nothing happened so I would say the hotel is safe. Very reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>JEN G, General Manager at Best Western Heritage Inn, responded to this reviewResponded November 10, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2011</t>
+  </si>
+  <si>
+    <t>Everything about this hotel was nice. Breakfast, pool, large clean rooms, gated parking. It was billed as near downtown. It is not. It is right by the I-10 freeway east of downtown by 8 miles. The neighborhood is a little questionable by sight but nothing happened so I would say the hotel is safe. Very reasonable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r66221776-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>66221776</t>
+  </si>
+  <si>
+    <t>06/02/2010</t>
+  </si>
+  <si>
+    <t>I will never stay again</t>
+  </si>
+  <si>
+    <t>Upon arrival, it was just another best western.  below average hotel, but a good price.  I was there for 10 nights, and will never see the inside of this hotel again.  The staff treated or group as children, and this infuriated several of us.  After a few nights we had a vehicle get broken into, but they would only explain that it is responsibility of the guest not the hotel, and were reluctant to call the police.  several of the rooms we occupied had fleas, but the girl at the desk didnt know what we were saying, so that is where it ended.  This was one of the worst experiences I have ever had at a hotel, and I will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>bestwesternhoustontx, Webmaster at Best Western Heritage Inn, responded to this reviewResponded January 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2012</t>
+  </si>
+  <si>
+    <t>Upon arrival, it was just another best western.  below average hotel, but a good price.  I was there for 10 nights, and will never see the inside of this hotel again.  The staff treated or group as children, and this infuriated several of us.  After a few nights we had a vehicle get broken into, but they would only explain that it is responsibility of the guest not the hotel, and were reluctant to call the police.  several of the rooms we occupied had fleas, but the girl at the desk didnt know what we were saying, so that is where it ended.  This was one of the worst experiences I have ever had at a hotel, and I will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r60749508-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>60749508</t>
+  </si>
+  <si>
+    <t>04/08/2010</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>We arrived after 5 hours of driving, and we were very exhausted. For the life of us we couldn't find this hotel, we spent 2 hours just trying to find it. My boyfriend almost had a mental breakdown. 
+Checked in just fine, our room was on the first floor and had a jacuzzi. Upon entering the room it looked a little small, but  you get a microwave/fridge and a safe which was very handy. The jacuzzi was a little small, we had to basically have our legs hanging out of it to fit. The tv was old, but at least we could watch it while soaking. Bed was nice, but the top covers were kind of uncomfortable/hard. The AC was fantastic, it kept the room nice and cool.
+The pool was nice, but it was kind of hard to find. We had to ask someone. The exercise room was good, but really crowded with machines. Some were broken, but they had a cold water fountain in there and a tv. I had forgotten my hair brush, and in our room it states they can give us combs.. yet they didn't have any. Not that big of a deal. The breakfast, was by far the best free hotel food i've ever had. They had pancakes you make yourself, eggs, sausages, biscuits and gravy. The standard cereal, fruit, etc. It was very, very good. They have two computers, one has a printer....We arrived after 5 hours of driving, and we were very exhausted. For the life of us we couldn't find this hotel, we spent 2 hours just trying to find it. My boyfriend almost had a mental breakdown. Checked in just fine, our room was on the first floor and had a jacuzzi. Upon entering the room it looked a little small, but  you get a microwave/fridge and a safe which was very handy. The jacuzzi was a little small, we had to basically have our legs hanging out of it to fit. The tv was old, but at least we could watch it while soaking. Bed was nice, but the top covers were kind of uncomfortable/hard. The AC was fantastic, it kept the room nice and cool.The pool was nice, but it was kind of hard to find. We had to ask someone. The exercise room was good, but really crowded with machines. Some were broken, but they had a cold water fountain in there and a tv. I had forgotten my hair brush, and in our room it states they can give us combs.. yet they didn't have any. Not that big of a deal. The breakfast, was by far the best free hotel food i've ever had. They had pancakes you make yourself, eggs, sausages, biscuits and gravy. The standard cereal, fruit, etc. It was very, very good. They have two computers, one has a printer. The desk clerk was browsing the internet on one of them and it looked really unprofessional. One thing to note, we called Dominos with the number provided on your room card, and they forgot our pizza when they delivered it. Had to wait a extra hour in a half for it, but they did give us a extra pasta bowl. Bottom line, the room was OK, but for only $90 a night including tax, its a great deal. Especially when it had a jacuzzi! The room stated that it was a $400 room, but i've stayed at $200 rooms that were a heck of a lot better.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>We arrived after 5 hours of driving, and we were very exhausted. For the life of us we couldn't find this hotel, we spent 2 hours just trying to find it. My boyfriend almost had a mental breakdown. 
+Checked in just fine, our room was on the first floor and had a jacuzzi. Upon entering the room it looked a little small, but  you get a microwave/fridge and a safe which was very handy. The jacuzzi was a little small, we had to basically have our legs hanging out of it to fit. The tv was old, but at least we could watch it while soaking. Bed was nice, but the top covers were kind of uncomfortable/hard. The AC was fantastic, it kept the room nice and cool.
+The pool was nice, but it was kind of hard to find. We had to ask someone. The exercise room was good, but really crowded with machines. Some were broken, but they had a cold water fountain in there and a tv. I had forgotten my hair brush, and in our room it states they can give us combs.. yet they didn't have any. Not that big of a deal. The breakfast, was by far the best free hotel food i've ever had. They had pancakes you make yourself, eggs, sausages, biscuits and gravy. The standard cereal, fruit, etc. It was very, very good. They have two computers, one has a printer....We arrived after 5 hours of driving, and we were very exhausted. For the life of us we couldn't find this hotel, we spent 2 hours just trying to find it. My boyfriend almost had a mental breakdown. Checked in just fine, our room was on the first floor and had a jacuzzi. Upon entering the room it looked a little small, but  you get a microwave/fridge and a safe which was very handy. The jacuzzi was a little small, we had to basically have our legs hanging out of it to fit. The tv was old, but at least we could watch it while soaking. Bed was nice, but the top covers were kind of uncomfortable/hard. The AC was fantastic, it kept the room nice and cool.The pool was nice, but it was kind of hard to find. We had to ask someone. The exercise room was good, but really crowded with machines. Some were broken, but they had a cold water fountain in there and a tv. I had forgotten my hair brush, and in our room it states they can give us combs.. yet they didn't have any. Not that big of a deal. The breakfast, was by far the best free hotel food i've ever had. They had pancakes you make yourself, eggs, sausages, biscuits and gravy. The standard cereal, fruit, etc. It was very, very good. They have two computers, one has a printer. The desk clerk was browsing the internet on one of them and it looked really unprofessional. One thing to note, we called Dominos with the number provided on your room card, and they forgot our pizza when they delivered it. Had to wait a extra hour in a half for it, but they did give us a extra pasta bowl. Bottom line, the room was OK, but for only $90 a night including tax, its a great deal. Especially when it had a jacuzzi! The room stated that it was a $400 room, but i've stayed at $200 rooms that were a heck of a lot better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r57515251-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>57515251</t>
+  </si>
+  <si>
+    <t>03/02/2010</t>
+  </si>
+  <si>
+    <t>Second Great stay here</t>
+  </si>
+  <si>
+    <t>Second time in two years staying here and would recommend it. I booked online and got a good rate but arrived one day earlier than booked and the reception were very good and gave a decent rate even just walking in off the street.Staff were very helpful, room was spacious and clean, free Wi-Fi, free parking, good choice at breakfast. Did not use the fitness room but others were.There are a couple of restaurants within walking distance and even more just five minutes driving away as well as shops. Close to the freeway but did not have a noise problem.Distance from Downtown Houston by car is no more than 20 minutes at the peak rush hour and even quicker outside of the peak times.No problem recommending.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>Second time in two years staying here and would recommend it. I booked online and got a good rate but arrived one day earlier than booked and the reception were very good and gave a decent rate even just walking in off the street.Staff were very helpful, room was spacious and clean, free Wi-Fi, free parking, good choice at breakfast. Did not use the fitness room but others were.There are a couple of restaurants within walking distance and even more just five minutes driving away as well as shops. Close to the freeway but did not have a noise problem.Distance from Downtown Houston by car is no more than 20 minutes at the peak rush hour and even quicker outside of the peak times.No problem recommending.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r10739247-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10739247</t>
+  </si>
+  <si>
+    <t>11/10/2007</t>
+  </si>
+  <si>
+    <t>Loved It</t>
+  </si>
+  <si>
+    <t>This hotel was amazing. I stayed here two nights. It's new and very clean. The staff and housekeeping are wonderful. They were extremely helpful. It was easy to find. I'm from Louisiana and didn't have any problems (Thanks to Mapquest) This will be my hotel of choice everytime I'm in the Houston area. I Loved this place</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r8697521-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8697521</t>
+  </si>
+  <si>
+    <t>09/10/2007</t>
+  </si>
+  <si>
+    <t>Okay....</t>
+  </si>
+  <si>
+    <t>This hotel was good and clean. The breakfast was a decent one, not just doughnuts. The bathroom was nice and updated. The staff were friendly. We have stayed here twice.</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108020-r7936103-Best_Western_Heritage_Inn-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>7936103</t>
+  </si>
+  <si>
+    <t>06/18/2007</t>
+  </si>
+  <si>
+    <t>Nice place for money</t>
+  </si>
+  <si>
+    <t>My family and I stayed here after returning from a trip to Florida, and were pleasantly surprise. The night before, we stayed in a Motel 6 that was just horrible. My wife was happy to move and was very comfortable with our stay here. Would stay again.</t>
+  </si>
+  <si>
+    <t>May 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2430,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2462,5823 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>190</v>
+      </c>
+      <c r="X19" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>224</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>208</v>
+      </c>
+      <c r="X23" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>224</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>216</v>
+      </c>
+      <c r="X24" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>224</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>208</v>
+      </c>
+      <c r="X25" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>243</v>
+      </c>
+      <c r="O26" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>245</v>
+      </c>
+      <c r="J27" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>249</v>
+      </c>
+      <c r="O27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s">
+        <v>255</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>256</v>
+      </c>
+      <c r="X28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>264</v>
+      </c>
+      <c r="X29" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>267</v>
+      </c>
+      <c r="J30" t="s">
+        <v>268</v>
+      </c>
+      <c r="K30" t="s">
+        <v>269</v>
+      </c>
+      <c r="L30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s">
+        <v>148</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>264</v>
+      </c>
+      <c r="X30" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" t="s">
+        <v>276</v>
+      </c>
+      <c r="L31" t="s">
+        <v>277</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>278</v>
+      </c>
+      <c r="O31" t="s">
+        <v>148</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>264</v>
+      </c>
+      <c r="X31" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>278</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>264</v>
+      </c>
+      <c r="X32" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>278</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>264</v>
+      </c>
+      <c r="X33" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>293</v>
+      </c>
+      <c r="J34" t="s">
+        <v>294</v>
+      </c>
+      <c r="K34" t="s">
+        <v>295</v>
+      </c>
+      <c r="L34" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>278</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>297</v>
+      </c>
+      <c r="X34" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>300</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>301</v>
+      </c>
+      <c r="J35" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" t="s">
+        <v>303</v>
+      </c>
+      <c r="L35" t="s">
+        <v>304</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>305</v>
+      </c>
+      <c r="O35" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>306</v>
+      </c>
+      <c r="X35" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>309</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>310</v>
+      </c>
+      <c r="J36" t="s">
+        <v>311</v>
+      </c>
+      <c r="K36" t="s">
+        <v>312</v>
+      </c>
+      <c r="L36" t="s">
+        <v>313</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>314</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>306</v>
+      </c>
+      <c r="X36" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>316</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" t="s">
+        <v>318</v>
+      </c>
+      <c r="K37" t="s">
+        <v>319</v>
+      </c>
+      <c r="L37" t="s">
+        <v>320</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>314</v>
+      </c>
+      <c r="O37" t="s">
+        <v>80</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>306</v>
+      </c>
+      <c r="X37" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>322</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>323</v>
+      </c>
+      <c r="J38" t="s">
+        <v>324</v>
+      </c>
+      <c r="K38" t="s">
+        <v>325</v>
+      </c>
+      <c r="L38" t="s">
+        <v>326</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>327</v>
+      </c>
+      <c r="O38" t="s">
+        <v>148</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>306</v>
+      </c>
+      <c r="X38" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>329</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>330</v>
+      </c>
+      <c r="J39" t="s">
+        <v>331</v>
+      </c>
+      <c r="K39" t="s">
+        <v>332</v>
+      </c>
+      <c r="L39" t="s">
+        <v>333</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>327</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>306</v>
+      </c>
+      <c r="X39" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>336</v>
+      </c>
+      <c r="J40" t="s">
+        <v>337</v>
+      </c>
+      <c r="K40" t="s">
+        <v>338</v>
+      </c>
+      <c r="L40" t="s">
+        <v>339</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>327</v>
+      </c>
+      <c r="O40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>306</v>
+      </c>
+      <c r="X40" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>342</v>
+      </c>
+      <c r="J41" t="s">
+        <v>343</v>
+      </c>
+      <c r="K41" t="s">
+        <v>344</v>
+      </c>
+      <c r="L41" t="s">
+        <v>345</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>346</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>306</v>
+      </c>
+      <c r="X41" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>348</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>349</v>
+      </c>
+      <c r="J42" t="s">
+        <v>350</v>
+      </c>
+      <c r="K42" t="s">
+        <v>351</v>
+      </c>
+      <c r="L42" t="s">
+        <v>352</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>346</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>306</v>
+      </c>
+      <c r="X42" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>355</v>
+      </c>
+      <c r="J43" t="s">
+        <v>356</v>
+      </c>
+      <c r="K43" t="s">
+        <v>357</v>
+      </c>
+      <c r="L43" t="s">
+        <v>358</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>346</v>
+      </c>
+      <c r="O43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>306</v>
+      </c>
+      <c r="X43" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>360</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>361</v>
+      </c>
+      <c r="J44" t="s">
+        <v>362</v>
+      </c>
+      <c r="K44" t="s">
+        <v>363</v>
+      </c>
+      <c r="L44" t="s">
+        <v>364</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>365</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>306</v>
+      </c>
+      <c r="X44" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>368</v>
+      </c>
+      <c r="J45" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>365</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>306</v>
+      </c>
+      <c r="X45" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>373</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>374</v>
+      </c>
+      <c r="J46" t="s">
+        <v>375</v>
+      </c>
+      <c r="K46" t="s">
+        <v>376</v>
+      </c>
+      <c r="L46" t="s">
+        <v>377</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>365</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>306</v>
+      </c>
+      <c r="X46" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>379</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>380</v>
+      </c>
+      <c r="J47" t="s">
+        <v>381</v>
+      </c>
+      <c r="K47" t="s">
+        <v>382</v>
+      </c>
+      <c r="L47" t="s">
+        <v>383</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>384</v>
+      </c>
+      <c r="O47" t="s">
+        <v>80</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>306</v>
+      </c>
+      <c r="X47" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>386</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>387</v>
+      </c>
+      <c r="J48" t="s">
+        <v>388</v>
+      </c>
+      <c r="K48" t="s">
+        <v>389</v>
+      </c>
+      <c r="L48" t="s">
+        <v>390</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>391</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>392</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>393</v>
+      </c>
+      <c r="J49" t="s">
+        <v>394</v>
+      </c>
+      <c r="K49" t="s">
+        <v>395</v>
+      </c>
+      <c r="L49" t="s">
+        <v>396</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>391</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>398</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>399</v>
+      </c>
+      <c r="J50" t="s">
+        <v>400</v>
+      </c>
+      <c r="K50" t="s">
+        <v>401</v>
+      </c>
+      <c r="L50" t="s">
+        <v>402</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>403</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>404</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>405</v>
+      </c>
+      <c r="J51" t="s">
+        <v>406</v>
+      </c>
+      <c r="K51" t="s">
+        <v>407</v>
+      </c>
+      <c r="L51" t="s">
+        <v>408</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>403</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>409</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>410</v>
+      </c>
+      <c r="J52" t="s">
+        <v>411</v>
+      </c>
+      <c r="K52" t="s">
+        <v>412</v>
+      </c>
+      <c r="L52" t="s">
+        <v>413</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>403</v>
+      </c>
+      <c r="O52" t="s">
+        <v>80</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>414</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>415</v>
+      </c>
+      <c r="J53" t="s">
+        <v>416</v>
+      </c>
+      <c r="K53" t="s">
+        <v>417</v>
+      </c>
+      <c r="L53" t="s">
+        <v>418</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>419</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>420</v>
+      </c>
+      <c r="X53" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>423</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>424</v>
+      </c>
+      <c r="J54" t="s">
+        <v>425</v>
+      </c>
+      <c r="K54" t="s">
+        <v>426</v>
+      </c>
+      <c r="L54" t="s">
+        <v>427</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>419</v>
+      </c>
+      <c r="O54" t="s">
+        <v>80</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>420</v>
+      </c>
+      <c r="X54" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>429</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>430</v>
+      </c>
+      <c r="J55" t="s">
+        <v>431</v>
+      </c>
+      <c r="K55" t="s">
+        <v>432</v>
+      </c>
+      <c r="L55" t="s">
+        <v>433</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>434</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>435</v>
+      </c>
+      <c r="X55" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>438</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>439</v>
+      </c>
+      <c r="J56" t="s">
+        <v>440</v>
+      </c>
+      <c r="K56" t="s">
+        <v>441</v>
+      </c>
+      <c r="L56" t="s">
+        <v>442</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>434</v>
+      </c>
+      <c r="O56" t="s">
+        <v>80</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>435</v>
+      </c>
+      <c r="X56" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>445</v>
+      </c>
+      <c r="J57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K57" t="s">
+        <v>447</v>
+      </c>
+      <c r="L57" t="s">
+        <v>448</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>434</v>
+      </c>
+      <c r="O57" t="s">
+        <v>148</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>435</v>
+      </c>
+      <c r="X57" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>450</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>451</v>
+      </c>
+      <c r="J58" t="s">
+        <v>452</v>
+      </c>
+      <c r="K58" t="s">
+        <v>453</v>
+      </c>
+      <c r="L58" t="s">
+        <v>454</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>455</v>
+      </c>
+      <c r="O58" t="s">
+        <v>80</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>456</v>
+      </c>
+      <c r="X58" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>459</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>460</v>
+      </c>
+      <c r="J59" t="s">
+        <v>461</v>
+      </c>
+      <c r="K59" t="s">
+        <v>462</v>
+      </c>
+      <c r="L59" t="s">
+        <v>463</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>464</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>456</v>
+      </c>
+      <c r="X59" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>466</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>467</v>
+      </c>
+      <c r="J60" t="s">
+        <v>468</v>
+      </c>
+      <c r="K60" t="s">
+        <v>469</v>
+      </c>
+      <c r="L60" t="s">
+        <v>470</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>471</v>
+      </c>
+      <c r="O60" t="s">
+        <v>80</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>456</v>
+      </c>
+      <c r="X60" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>473</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>474</v>
+      </c>
+      <c r="J61" t="s">
+        <v>475</v>
+      </c>
+      <c r="K61" t="s">
+        <v>476</v>
+      </c>
+      <c r="L61" t="s">
+        <v>477</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>471</v>
+      </c>
+      <c r="O61" t="s">
+        <v>80</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>456</v>
+      </c>
+      <c r="X61" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>479</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>480</v>
+      </c>
+      <c r="J62" t="s">
+        <v>481</v>
+      </c>
+      <c r="K62" t="s">
+        <v>482</v>
+      </c>
+      <c r="L62" t="s">
+        <v>483</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>484</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>485</v>
+      </c>
+      <c r="X62" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>488</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>489</v>
+      </c>
+      <c r="J63" t="s">
+        <v>490</v>
+      </c>
+      <c r="K63" t="s">
+        <v>491</v>
+      </c>
+      <c r="L63" t="s">
+        <v>492</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>493</v>
+      </c>
+      <c r="O63" t="s">
+        <v>72</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>494</v>
+      </c>
+      <c r="X63" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>497</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>498</v>
+      </c>
+      <c r="J64" t="s">
+        <v>499</v>
+      </c>
+      <c r="K64" t="s">
+        <v>500</v>
+      </c>
+      <c r="L64" t="s">
+        <v>501</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>502</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>494</v>
+      </c>
+      <c r="X64" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>504</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>505</v>
+      </c>
+      <c r="J65" t="s">
+        <v>506</v>
+      </c>
+      <c r="K65" t="s">
+        <v>507</v>
+      </c>
+      <c r="L65" t="s">
+        <v>508</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>509</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>510</v>
+      </c>
+      <c r="X65" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>513</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>514</v>
+      </c>
+      <c r="J66" t="s">
+        <v>515</v>
+      </c>
+      <c r="K66" t="s">
+        <v>516</v>
+      </c>
+      <c r="L66" t="s">
+        <v>517</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>518</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>510</v>
+      </c>
+      <c r="X66" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>520</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>521</v>
+      </c>
+      <c r="J67" t="s">
+        <v>522</v>
+      </c>
+      <c r="K67" t="s">
+        <v>523</v>
+      </c>
+      <c r="L67" t="s">
+        <v>524</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>518</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>525</v>
+      </c>
+      <c r="X67" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>528</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>529</v>
+      </c>
+      <c r="J68" t="s">
+        <v>530</v>
+      </c>
+      <c r="K68" t="s">
+        <v>531</v>
+      </c>
+      <c r="L68" t="s">
+        <v>532</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>533</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>534</v>
+      </c>
+      <c r="X68" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>537</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>538</v>
+      </c>
+      <c r="J69" t="s">
+        <v>539</v>
+      </c>
+      <c r="K69" t="s">
+        <v>540</v>
+      </c>
+      <c r="L69" t="s">
+        <v>541</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>533</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>534</v>
+      </c>
+      <c r="X69" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>543</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>544</v>
+      </c>
+      <c r="J70" t="s">
+        <v>545</v>
+      </c>
+      <c r="K70" t="s">
+        <v>546</v>
+      </c>
+      <c r="L70" t="s">
+        <v>547</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>534</v>
+      </c>
+      <c r="X70" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>549</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>550</v>
+      </c>
+      <c r="J71" t="s">
+        <v>551</v>
+      </c>
+      <c r="K71" t="s">
+        <v>516</v>
+      </c>
+      <c r="L71" t="s">
+        <v>552</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>553</v>
+      </c>
+      <c r="X71" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>556</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>557</v>
+      </c>
+      <c r="J72" t="s">
+        <v>558</v>
+      </c>
+      <c r="K72" t="s">
+        <v>559</v>
+      </c>
+      <c r="L72" t="s">
+        <v>560</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>561</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>562</v>
+      </c>
+      <c r="X72" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>565</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>566</v>
+      </c>
+      <c r="J73" t="s">
+        <v>567</v>
+      </c>
+      <c r="K73" t="s">
+        <v>254</v>
+      </c>
+      <c r="L73" t="s">
+        <v>568</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>569</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>570</v>
+      </c>
+      <c r="X73" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>573</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>574</v>
+      </c>
+      <c r="J74" t="s">
+        <v>575</v>
+      </c>
+      <c r="K74" t="s">
+        <v>576</v>
+      </c>
+      <c r="L74" t="s">
+        <v>577</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>578</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>579</v>
+      </c>
+      <c r="X74" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>582</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>583</v>
+      </c>
+      <c r="J75" t="s">
+        <v>584</v>
+      </c>
+      <c r="K75" t="s">
+        <v>585</v>
+      </c>
+      <c r="L75" t="s">
+        <v>586</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>587</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>588</v>
+      </c>
+      <c r="X75" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>591</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>592</v>
+      </c>
+      <c r="J76" t="s">
+        <v>593</v>
+      </c>
+      <c r="K76" t="s">
+        <v>594</v>
+      </c>
+      <c r="L76" t="s">
+        <v>595</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>578</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>596</v>
+      </c>
+      <c r="X76" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>599</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>600</v>
+      </c>
+      <c r="J77" t="s">
+        <v>601</v>
+      </c>
+      <c r="K77" t="s">
+        <v>602</v>
+      </c>
+      <c r="L77" t="s">
+        <v>603</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>604</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>605</v>
+      </c>
+      <c r="X77" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>608</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>609</v>
+      </c>
+      <c r="J78" t="s">
+        <v>610</v>
+      </c>
+      <c r="K78" t="s">
+        <v>611</v>
+      </c>
+      <c r="L78" t="s">
+        <v>612</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>613</v>
+      </c>
+      <c r="O78" t="s">
+        <v>80</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>605</v>
+      </c>
+      <c r="X78" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>615</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>616</v>
+      </c>
+      <c r="J79" t="s">
+        <v>617</v>
+      </c>
+      <c r="K79" t="s">
+        <v>618</v>
+      </c>
+      <c r="L79" t="s">
+        <v>619</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>620</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>621</v>
+      </c>
+      <c r="X79" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>624</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>625</v>
+      </c>
+      <c r="J80" t="s">
+        <v>626</v>
+      </c>
+      <c r="K80" t="s">
+        <v>627</v>
+      </c>
+      <c r="L80" t="s">
+        <v>628</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>629</v>
+      </c>
+      <c r="O80" t="s">
+        <v>80</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>630</v>
+      </c>
+      <c r="X80" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>633</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>634</v>
+      </c>
+      <c r="J81" t="s">
+        <v>635</v>
+      </c>
+      <c r="K81" t="s">
+        <v>636</v>
+      </c>
+      <c r="L81" t="s">
+        <v>637</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>638</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>640</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>641</v>
+      </c>
+      <c r="J82" t="s">
+        <v>642</v>
+      </c>
+      <c r="K82" t="s">
+        <v>643</v>
+      </c>
+      <c r="L82" t="s">
+        <v>644</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>645</v>
+      </c>
+      <c r="O82" t="s">
+        <v>80</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>648</v>
+      </c>
+      <c r="J83" t="s">
+        <v>649</v>
+      </c>
+      <c r="K83" t="s">
+        <v>650</v>
+      </c>
+      <c r="L83" t="s">
+        <v>651</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>652</v>
+      </c>
+      <c r="O83" t="s">
+        <v>72</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>653</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>654</v>
+      </c>
+      <c r="J84" t="s">
+        <v>655</v>
+      </c>
+      <c r="K84" t="s">
+        <v>656</v>
+      </c>
+      <c r="L84" t="s">
+        <v>657</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>658</v>
+      </c>
+      <c r="O84" t="s">
+        <v>80</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>37003</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>659</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>660</v>
+      </c>
+      <c r="J85" t="s">
+        <v>661</v>
+      </c>
+      <c r="K85" t="s">
+        <v>662</v>
+      </c>
+      <c r="L85" t="s">
+        <v>663</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>664</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>
